--- a/pred_ohlcv/54_21/2020-01-26 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 BSV ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>329.3547244499998</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>512.4095244499998</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>355.8541244499999</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>401.2601244499999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>353.9976244499999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>348.8162244499999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>348.8242244499999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>442.4507109699999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>421.3253109699999</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>421.3253109699999</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>423.2255109699998</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>359.6579109699999</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>358.7532109699999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>317.0672109699999</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>308.7214109699999</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>231.8756109699999</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>268.1253109699999</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>267.9596109699999</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>329.6725109699999</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>372.8843109699999</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>371.1990109699999</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>298.6671109699999</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>171.4002109699999</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>107.9197109699999</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>393.8736109699998</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>407.4909109699998</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>397.4153109699998</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>397.4433109699999</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>397.4433109699999</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>396.4784109699999</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>138.1848109699998</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>168.1446109699998</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>20.93941096999984</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>72.50561096999985</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-3368.25211391</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-3368.20651391</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-3371.71349943</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-3390.216299430001</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-3290.145799430001</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-3387.251399430001</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-3315.688199430001</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-3405.40439943</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-3553.74559943</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-3552.42319943</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-3554.430499430001</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-3543.335199430001</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-3543.28519943</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-3491.873399430001</v>
       </c>
       <c r="H497">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-3459.716999430001</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-3459.716999430001</v>
       </c>
       <c r="H499">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-4647.420894099998</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-4535.803292429998</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-4529.046792429997</v>
       </c>
       <c r="H601">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-4692.025292689997</v>
       </c>
       <c r="H641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-4621.535992689996</v>
       </c>
       <c r="H642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-4627.043692689997</v>
       </c>
       <c r="H643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-4637.043692689997</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-4637.043692689997</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-4637.043692689997</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-4636.043692689997</v>
       </c>
       <c r="H647">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-4643.596792689997</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-4643.496792689996</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-4648.363792689996</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-4648.363792689996</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-4648.250694289996</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-4648.265694289997</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-4798.162894289997</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-4798.156894289997</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-4809.017094289997</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-4809.017094289997</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-4810.938494289997</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-4836.116794289997</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-4788.288093299997</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-4788.288093299997</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-4792.212093299997</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-4792.212093299997</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-4792.018593299997</v>
       </c>
       <c r="H664">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-4847.478293299997</v>
       </c>
       <c r="H665">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-4846.680993299997</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-4852.195893299997</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-4855.195893299997</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-4855.195893299997</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-4854.802893299997</v>
       </c>
       <c r="H670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-4854.802893299997</v>
       </c>
       <c r="H671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-4861.943493299997</v>
       </c>
       <c r="H672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-4861.943493299997</v>
       </c>
       <c r="H673">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-4853.967693299996</v>
       </c>
       <c r="H674">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-4853.967693299996</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-4853.967693299996</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-4848.338193299996</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-4848.338193299996</v>
       </c>
       <c r="H678">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-4825.854794629997</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-4825.854794629997</v>
       </c>
       <c r="H680">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-4815.854794629997</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-4791.707294629997</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-4723.749194629997</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-4780.683864609996</v>
       </c>
       <c r="H690">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-4776.536264609996</v>
       </c>
       <c r="H691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-4776.536264609996</v>
       </c>
       <c r="H692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-4771.752264609996</v>
       </c>
       <c r="H693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-4771.752264609996</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-4723.755664609996</v>
       </c>
       <c r="H697">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-4734.785664609995</v>
       </c>
       <c r="H698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-4734.781664609995</v>
       </c>
       <c r="H699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-4735.837664609995</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-4761.580264609995</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-4760.344865009994</v>
       </c>
       <c r="H702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-4760.344865009994</v>
       </c>
       <c r="H703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-4569.924989399996</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-4589.620289399996</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-4586.382789399996</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-4654.172389399996</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-4707.539014759996</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-4712.950914759996</v>
       </c>
       <c r="H791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-4712.950914759996</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-4706.501914759996</v>
       </c>
       <c r="H793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-4706.501914759996</v>
       </c>
       <c r="H794">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-4706.499914759996</v>
       </c>
       <c r="H795">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-4706.499914759996</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-4653.496189399995</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-4653.496189399995</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-4653.496189399995</v>
       </c>
       <c r="H799">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-4653.496189399995</v>
       </c>
       <c r="H800">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-4741.695689399995</v>
       </c>
       <c r="H801">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-4762.946089399995</v>
       </c>
       <c r="H802">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-4762.946089399995</v>
       </c>
       <c r="H803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-4762.750389399995</v>
       </c>
       <c r="H804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-4762.750389399995</v>
       </c>
       <c r="H805">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-2868.875097289993</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-3032.900397289993</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-3488.713630499993</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-3488.713630499993</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-3488.713630499993</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-3485.702430499993</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-3423.593130499993</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-3468.860496069993</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-3468.860496069993</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-3425.229996069993</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-3325.468461639993</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-2985.618661639993</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-3089.701661639993</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-5431.16574496999</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-5426.65821033999</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-5404.456610339989</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-5403.139087289989</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-5401.998887289989</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-5401.998887289989</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-5420.102587289989</v>
       </c>
       <c r="H1070">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-5420.102587289989</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-5480.878487289989</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-5480.878487289989</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-5156.240389599988</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-5191.586740469988</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-5188.466340469989</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1082" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-26 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 BSV ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-159.5037747400002</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-127.0407744800002</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-138.2809744800002</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-45.4676744800002</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>120.1347255199998</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-187.0256744800002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>14.89312551999981</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>236.3611244499998</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>236.3611244499998</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>369.2259244499998</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>329.3547244499998</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>512.4095244499998</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>355.8541244499999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>401.2601244499999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>353.9976244499999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>348.8162244499999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>348.8242244499999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>442.4507109699999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>421.3253109699999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>421.3253109699999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>423.2255109699998</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>359.6579109699999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>358.7532109699999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>317.0672109699999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>308.7214109699999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>231.8756109699999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>268.1253109699999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>267.9596109699999</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>329.6725109699999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>372.8843109699999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>371.1990109699999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>298.6671109699999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>171.4002109699999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>107.9197109699999</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>393.8736109699998</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>396.4784109699999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>138.1848109699998</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>168.1446109699998</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-4623.129092689997</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-4618.221492689998</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-4684.193192689997</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-4692.025292689997</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-4621.535992689996</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-4627.043692689997</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-4637.043692689997</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-4637.043692689997</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-4637.043692689997</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-4636.043692689997</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-4643.596792689997</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-4643.496792689996</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-4648.363792689996</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-4648.363792689996</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-4648.250694289996</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-4648.265694289997</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-4798.162894289997</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-4798.156894289997</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-4809.017094289997</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-4809.017094289997</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-4810.938494289997</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-4836.116794289997</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-4788.288093299997</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-4788.288093299997</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-4792.212093299997</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-4792.212093299997</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-4792.018593299997</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-4847.478293299997</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-4846.680993299997</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-4852.195893299997</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-4855.195893299997</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-4855.195893299997</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-4854.802893299997</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-4854.802893299997</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-4861.943493299997</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-4861.943493299997</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-4853.967693299996</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-4853.967693299996</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-4853.967693299996</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-4848.338193299996</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-4848.338193299996</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-4825.854794629997</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-4825.854794629997</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-4815.854794629997</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-4791.707294629997</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-4723.749194629997</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-4695.491394629997</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-4668.630194629996</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-4622.058129619996</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-4783.208564609996</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-4757.565564609996</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-4758.692364609996</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-4780.683864609996</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-4776.536264609996</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-4776.536264609996</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-4771.752264609996</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-4771.752264609996</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-4771.752264609996</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-4773.932364609996</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-4723.755664609996</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-4734.785664609995</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-4734.781664609995</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-4735.837664609995</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-4761.580264609995</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-4760.344865009994</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-4760.344865009994</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-4561.138564609994</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-4467.635287229994</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-4467.635287229994</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-4415.943686219994</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-4225.729187229994</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-4236.772987229994</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-4706.501914759996</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-4706.501914759996</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-4706.499914759996</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-4706.499914759996</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-4653.496189399995</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-4653.496189399995</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-4653.496189399995</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-4653.496189399995</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-4741.695689399995</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-4762.946089399995</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-4762.946089399995</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-4762.750389399995</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-4762.750389399995</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-4572.291589399994</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-2868.875097289993</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-3032.900397289993</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-3488.713630499993</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-3488.713630499993</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-3488.713630499993</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-3485.702430499993</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-3423.593130499993</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-3468.860496069993</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-3468.860496069993</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-3425.229996069993</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-3325.468461639993</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-2985.618661639993</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-3089.701661639993</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-5159.61854496999</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-5184.387344969989</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-5183.733044969989</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-5253.20184496999</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-5426.65821033999</v>
       </c>
       <c r="H1065">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-5401.998887289989</v>
       </c>
       <c r="H1068">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-5401.998887289989</v>
       </c>
       <c r="H1069">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-5420.102587289989</v>
       </c>
       <c r="H1070">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-5191.586740469988</v>
       </c>
       <c r="H1080">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-5188.466340469989</v>
       </c>
       <c r="H1081">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
